--- a/docs/テスト仕様書/【勤怠管理システム_テスト仕様書】KK04001_勤務報告書画面.xlsx
+++ b/docs/テスト仕様書/【勤怠管理システム_テスト仕様書】KK04001_勤務報告書画面.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A9C53E-F39C-4A88-B9EF-65EB5B064E35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F01E8B4-37F6-4325-A134-3EE1A2A7747D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="126">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -230,70 +230,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>登録ボタンを押した際入力に不備が無ければ、
-入力データを日次テーブル（work_report_daily）へ登録</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>フビ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>登録ボタンを押した際入力に不備が無ければ、
-入力データを月次テーブル（work_report_monthly）へ登録</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>フビ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ゲツジ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「戻る」ボタンを押した際、
 ユーザーが管理者であれば社員一覧画面へ遷移する</t>
     <rPh sb="1" eb="2">
@@ -1077,500 +1013,19 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>日次報告書テーブルに対象のデータが存在しない場合、
-「勤務報告書」画面を開いた時に正しく画面表示される。</t>
-    <rPh sb="0" eb="5">
-      <t>ニチジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="27" eb="32">
-      <t>キンムホウコクショ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月次報告書テーブルに対象のデータが存在しない場合、
-「勤務報告書」画面を開いた時に正しく画面表示される。</t>
-    <rPh sb="0" eb="5">
-      <t>ゲツジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="27" eb="32">
-      <t>キンムホウコクショ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="44" eb="48">
-      <t>ガメンヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日次報告書テーブルに登録した社員番号が正しく表示される</t>
-    <rPh sb="0" eb="5">
-      <t>ニチジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>シャインバンゴウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日次報告書テーブルに登録した年が正しく表示される</t>
-    <rPh sb="0" eb="5">
-      <t>ニチジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日次報告書テーブルに登録した月が正しく表示される</t>
-    <rPh sb="0" eb="5">
-      <t>ニチジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日次報告書テーブルに登録した日が正しく表示される</t>
-    <rPh sb="0" eb="5">
-      <t>ニチジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日次報告書テーブルに登録した出社時間が正しく表示される</t>
-    <rPh sb="0" eb="5">
-      <t>ニチジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュッシャ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日次報告書テーブルに登録した退社時間が正しく表示される</t>
-    <rPh sb="0" eb="5">
-      <t>ニチジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>タイシャ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日次報告書テーブルに登録した休憩時間が正しく表示される</t>
-    <rPh sb="0" eb="5">
-      <t>ニチジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>キュウケイジカン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日次報告書テーブルに登録した稼働時間が正しく表示される</t>
-    <rPh sb="0" eb="5">
-      <t>ニチジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カドウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日次報告書テーブルに登録した時間外労働時間が正しく表示される</t>
-    <rPh sb="0" eb="5">
-      <t>ニチジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="19">
-      <t>ジカンガイロウドウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日次報告書テーブルに登録した備考が正しく表示される</t>
-    <rPh sb="0" eb="5">
-      <t>ニチジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月次報告書テーブルに登録した社員番号が正しく表示される</t>
-    <rPh sb="0" eb="2">
-      <t>ゲツジ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>シャインバンゴウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月次報告書テーブルに登録した年が正しく表示される</t>
-    <rPh sb="0" eb="1">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月次報告書テーブルに登録した定時間が正しく表示される</t>
-    <rPh sb="0" eb="1">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
+    <t>「登録」ボタンを押した際、「定時間」の記入形式が「hh:mm」でない場合エラーメッセージを表示</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
     </rPh>
     <rPh sb="14" eb="17">
       <t>テイジカン</t>
     </rPh>
-    <rPh sb="18" eb="19">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月次報告書テーブルに登録した稼働時間合計が正しく表示される</t>
-    <rPh sb="0" eb="1">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>カドウジカン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月次報告書テーブルに登録した時間外合計が正しく表示される</t>
-    <rPh sb="0" eb="1">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>ジカンガイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月次報告書テーブルに登録したプロジェクト名が正しく表示される</t>
-    <rPh sb="0" eb="1">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月次報告書テーブルに登録した特記事項が正しく表示される</t>
-    <rPh sb="0" eb="1">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>トッキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジコウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月次報告書テーブルに登録した月が正しく表示される</t>
-    <rPh sb="0" eb="1">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホウコク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「登録」ボタンを押した際、「定時間」の記入形式が「hh:mm」でない場合エラーメッセージを表示</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>テイジカン</t>
-    </rPh>
     <rPh sb="19" eb="21">
       <t>キニュウ</t>
     </rPh>
@@ -1582,79 +1037,6 @@
     </rPh>
     <rPh sb="45" eb="47">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月次報告書テーブルの承認済みフラグの値が１（ユーザー編集不可）の時、
-管理者ユーザーの画面に「取消」ボタンが表示される</t>
-    <rPh sb="0" eb="5">
-      <t>ゲツジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ショウニンズ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>トリケシ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>管理者が「取消」ボタンを押すと、押されたユーザーの月次報告書（work_report_monthly）テーブルの
-承認済みフラグ（auth_flg）の値を０（ユーザー編集可）にする</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トリケシ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ゲツジ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>カ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1813,241 +1195,1369 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>管理者が「確定」ボタンを押すと、押されたユーザーの月次報告書（work_report_monthly）テーブルの
-承認済みフラグ（auth_flg）の値を１（ユーザー編集不可）にする</t>
+    <t>ok</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高橋</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示はされているがグレーアウトになって押せない状態。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>500エラー（This application has no explicit mapping for /error, so you are seeing this as a fallback.）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小数点以下が切り捨てられて計算される</t>
+    <rPh sb="0" eb="5">
+      <t>ショウスウテンイカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・初回は白紙の記入表が表示されたが、登録ボタンを押してブラウザバックすると「,,,,,,」と全ての記入欄に表示されてしまう。
+・勤務表画面を表示した回数の数、日付が繰り返し表示される。</t>
+    <rPh sb="1" eb="3">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハクシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月次報告書テーブルに対象のデータが存在しない場合、「勤務報告書」画面を開いた時に
+「定時間」「稼働時間合計」「時間外合計」「プロジェクト名」「特記事項」の記入欄が空欄の勤務表が表示される。</t>
+    <rPh sb="0" eb="5">
+      <t>ゲツジホウコクショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="31">
+      <t>キンムホウコクショ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>テイジカン</t>
+    </rPh>
+    <rPh sb="47" eb="53">
+      <t>カドウジカンゴウケイ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>ジカンガイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>トッキ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="77" eb="80">
+      <t>キニュウラン</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="84" eb="87">
+      <t>キンムヒョウ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日次報告書テーブルに対象のデータが存在しない場合、「勤務報告書」画面を開いた時に
+「出社時間」「退社時間」「休憩時間」「稼働時間」「時間外労働時間」「備考」の記入欄が空欄の勤務表が表示される。</t>
+    <rPh sb="0" eb="5">
+      <t>ニチジホウコクショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="31">
+      <t>キンムホウコクショ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="42" eb="46">
+      <t>シュッシャジカン</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>タイシャジカン</t>
+    </rPh>
+    <rPh sb="54" eb="58">
+      <t>キュウケイジカン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="66" eb="73">
+      <t>ジカンガイロウドウジカン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="79" eb="82">
+      <t>キニュウラン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="86" eb="89">
+      <t>キンムヒョウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録ボタンを押した際入力に不備が無ければ、
+入力データを日次テーブル（work_report_daily）へ登録し、登録された値の入った勤務表画面を表示。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フビ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="68" eb="73">
+      <t>キンムヒョウガメン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録ボタンを押した際入力に不備が無ければ、
+入力データを月次テーブル（work_report_monthly）へ登録し、登録された値の入った勤務表画面を表示。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フビ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ゲツジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="70" eb="75">
+      <t>キンムヒョウガメン</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、日次報告書テーブルに登録した社員番号が正しく表示される</t>
+    <rPh sb="0" eb="5">
+      <t>キンムヒョウガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="12" eb="17">
+      <t>ニチジホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、日次報告書テーブルに登録した年が正しく表示される</t>
+    <rPh sb="12" eb="17">
+      <t>ニチジホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、日次報告書テーブルに登録した月が正しく表示される</t>
+    <rPh sb="12" eb="17">
+      <t>ニチジホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、日次報告書テーブルに登録した日が正しく表示される</t>
+    <rPh sb="12" eb="17">
+      <t>ニチジホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、日次報告書テーブルに登録した出社時間が正しく表示される</t>
+    <rPh sb="12" eb="17">
+      <t>ニチジホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュッシャ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、日次報告書テーブルに登録した退社時間が正しく表示される</t>
+    <rPh sb="12" eb="17">
+      <t>ニチジホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>タイシャ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、日次報告書テーブルに登録した休憩時間が正しく表示される</t>
+    <rPh sb="12" eb="17">
+      <t>ニチジホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>キュウケイジカン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、日次報告書テーブルに登録した稼働時間が正しく表示される</t>
+    <rPh sb="12" eb="17">
+      <t>ニチジホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、日次報告書テーブルに登録した時間外労働時間が正しく表示される</t>
+    <rPh sb="12" eb="17">
+      <t>ニチジホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="31">
+      <t>ジカンガイロウドウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、日次報告書テーブルに登録した備考が正しく表示される</t>
+    <rPh sb="12" eb="17">
+      <t>ニチジホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、月次報告書テーブルに登録した社員番号が正しく表示される</t>
+    <rPh sb="12" eb="14">
+      <t>ゲツジ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、月次報告書テーブルに登録した年が正しく表示される</t>
+    <rPh sb="12" eb="13">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、月次報告書テーブルに登録した月が正しく表示される</t>
+    <rPh sb="12" eb="13">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、月次報告書テーブルに登録した定時間が正しく表示される</t>
+    <rPh sb="12" eb="13">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>テイジカン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、月次報告書テーブルに登録した稼働時間合計が正しく表示される</t>
+    <rPh sb="12" eb="13">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>カドウジカン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、月次報告書テーブルに登録した時間外合計が正しく表示される</t>
+    <rPh sb="12" eb="13">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ジカンガイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、月次報告書テーブルに登録したプロジェクト名が正しく表示される</t>
+    <rPh sb="12" eb="13">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、月次報告書テーブルに登録した特記事項が正しく表示される</t>
+    <rPh sb="12" eb="13">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>トウロクトッキジコウタダヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月次報告書（work_report_monthly）テーブルの承認済みフラグ（auth_flg）の値が0の時、管理者は勤務表画面の「確定」ボタンを押すことができ、ボタンを押すとフラグの値を１（ユーザー編集不可）にし、DBに登録された値の入った勤務表画面を表示する。（確定された為、表の値の変更は不可）</t>
+    <rPh sb="0" eb="2">
+      <t>ゲツジ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="59" eb="64">
+      <t>キンムヒョウガメン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="114" eb="119">
+      <t>キンムヒョウガメン</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月次報告書（work_report_monthly）テーブルの承認済みフラグ（auth_flg）の値が１の時、管理者は勤務表画面の「取消」ボタンを押すことができ、ボタンを押すとフラグの値を０（ユーザー編集可）にし、DBに登録された値の入った勤務表画面を表示する。（表の値の変更可）</t>
+    <rPh sb="53" eb="54">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="59" eb="64">
+      <t>キンムヒョウガメン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="120" eb="125">
+      <t>キンムヒョウガメン</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月次報告書テーブルの承認済みフラグの値が0（ユーザー編集可）の時、
+管理者ユーザーの開いている勤務表画面に「確定」ボタンが表示される</t>
+    <rPh sb="0" eb="5">
+      <t>ゲツジホウコクショ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ショウニンズ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>ヒョウガメン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月次報告書テーブルの承認済みフラグの値が１（ユーザー編集不可）の時、
+管理者ユーザーの開いている勤務表画面に「取消」ボタンが表示される</t>
+    <rPh sb="0" eb="5">
+      <t>ゲツジホウコクショ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ショウニンズ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>キンムヒョウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新処理ができない</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確定ボタンが表示されていて押せてしまう。</t>
+    <rPh sb="1" eb="3">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハクシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロクオスベキニュウランヒョウジキンムヒョウガメンヒョウジカイスウカズヒヅケクカエヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新処理ができない</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジタコウモクコウシンカショヨウカクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面表示はDB通りだが、DBの更新処理ができない</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>コウシンショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面表示はDB通りだが、DBの更新処理ができない（５９参照）</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>コウシンショリ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタンのレイアウトが崩れてしまう。</t>
+    <rPh sb="10" eb="11">
+      <t>クズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020/10/26
+2020/10/28</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG
+OK</t>
+  </si>
+  <si>
+    <t>更新日時はOK
+その他の項目で更新されない箇所があったので要確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG
+OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確定ボタンを押しても承認済みフラグの値が更新されない</t>
+    <rPh sb="0" eb="2">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ショウニンズ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消ボタンを押しても画面遷移しない。
+勤務表の登録・更新が出来てしまう。</t>
+    <rPh sb="0" eb="2">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>キンムヒョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>元の勤務表画面にエラーメッセージが出ず、エラーページに飛ぶ</t>
+    <rPh sb="0" eb="1">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>キンムヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録は行われるが、その後の勤務表画面の表示が
+初回登録時の時はできない。
+※データが登録されている勤務表に追加で登録する際にも、
+　条件は不明だが稀にエラーページに遷移した。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="13" eb="18">
+      <t>キンムヒョウガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>キンムヒョウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>フメイ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>マレ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020/10/27
+2020/10/29</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>△
+OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変更不可の処理は問題ないが、登録ボタンを押した後の画面遷移で
+勤務表画面ではなくエラーページに行ってしまう</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="31" eb="36">
+      <t>キンムヒョウガメン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者が他ユーザーの登録情報を書き換えて登録できない。</t>
     <rPh sb="0" eb="3">
       <t>カンリシャ</t>
     </rPh>
-    <rPh sb="5" eb="7">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ゲツジ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>フカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月次報告書テーブルの承認済みフラグの値が0（ユーザー編集可）の時、
-管理者ユーザーの画面に「確定」ボタンが表示される</t>
-    <rPh sb="0" eb="5">
-      <t>ゲツジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ショウニンズ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
       <t>カ</t>
     </rPh>
-    <rPh sb="31" eb="32">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020/10/26
+2020/10/28
+2020/11/4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG
+NG
+OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージは表示されるが入力欄の塗りつぶし処理が合っていない</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020/10/29
+2020/11/4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NG
+NG
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG
+NG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者が他ユーザーの登録情報を書き換えて登録できない。
+DBの更新者の項目のみ更新できていない。</t>
+    <rPh sb="0" eb="3">
       <t>カンリシャ</t>
     </rPh>
-    <rPh sb="42" eb="44">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「確定」ボタンを押した際、「出社」の記入形式が「hh:mm」でない場合エラーメッセージを表示</t>
-    <rPh sb="1" eb="3">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュッシャ</t>
-    </rPh>
-    <rPh sb="18" eb="22">
-      <t>キニュウケイシキ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「確定」ボタンを押した際、「退社」の記入形式が「hh:mm」でない場合エラーメッセージを表示</t>
-    <rPh sb="1" eb="3">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>タイシャ</t>
-    </rPh>
-    <rPh sb="18" eb="22">
-      <t>キニュウケイシキ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「確定」ボタンを押した際、「休憩時間」の記入形式が「hh:mm」でない場合エラーメッセージを表示</t>
-    <rPh sb="1" eb="3">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>キュウケイジカン</t>
-    </rPh>
-    <rPh sb="20" eb="24">
-      <t>キニュウケイシキ</t>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>コウシンシャ</t>
     </rPh>
     <rPh sb="35" eb="37">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「確定」ボタンを押した際、
-一日分の「出社」「退社」「休憩時間」が全て記入されていなければエラーメッセージを表示</t>
-    <rPh sb="1" eb="3">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イチニチ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュッシャ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>タイシャ</t>
-    </rPh>
-    <rPh sb="27" eb="31">
-      <t>キュウケイジカン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「確定」ボタンを押した際、「定時間」が未記入の場合エラーメッセージを表示</t>
-    <rPh sb="1" eb="3">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>テイジカン</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ミキニュウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「確定」ボタンを押した際、「定時間」の記入形式が「hh:mm」でない場合エラーメッセージを表示</t>
-    <rPh sb="1" eb="3">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>テイジカン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヒョウジ</t>
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020/10/28
+2020/11/4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同上
+二回目以降の登録が上手くいかない</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ニカイメ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ウマ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2086,7 +2596,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2102,6 +2612,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2170,7 +2686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2253,8 +2769,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2265,11 +2799,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3738,11 +4284,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A29CC4-21D6-4766-80DA-46B5F250954D}">
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
@@ -3809,50 +4355,70 @@
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
+      <c r="C7" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7">
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
+        <v>22</v>
+      </c>
+      <c r="C8" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7">
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
+        <v>23</v>
+      </c>
+      <c r="C9" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7">
@@ -3861,833 +4427,1221 @@
       <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="15">
+        <v>44139</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" spans="1:9" ht="51.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7">
         <v>5</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+        <v>73</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
+    </row>
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7">
         <v>6</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="7"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
+        <v>72</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
+        <v>29</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
+        <v>60</v>
+      </c>
+      <c r="C15" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+        <v>61</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="30"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="7"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24"/>
+        <v>94</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
+    </row>
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
+        <v>96</v>
+      </c>
+      <c r="C19" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+        <v>97</v>
+      </c>
+      <c r="C20" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="30"/>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
+    </row>
+    <row r="22" spans="1:9" ht="59.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="36"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="7">
+        <v>19</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="7"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="24"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="36"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
+        <v>64</v>
+      </c>
+      <c r="C24" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
+        <v>62</v>
+      </c>
+      <c r="C25" s="15">
+        <v>44139</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="37"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="7">
-        <v>17</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="24"/>
+      <c r="A26" s="29">
+        <v>22</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="33">
+        <v>44139</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="40"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7">
-        <v>18</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="15">
+        <v>44139</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="37"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="36"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7">
-        <v>19</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="15">
+        <v>44139</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="37"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="36"/>
+    </row>
+    <row r="29" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7">
-        <v>20</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="30"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="36"/>
+    </row>
+    <row r="30" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7">
-        <v>21</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="30"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>30</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
+    </row>
+    <row r="31" spans="1:9" ht="65.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="30"/>
-    </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="7">
-        <v>23</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="30"/>
+        <v>74</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+    </row>
+    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="29">
+        <v>32</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="40"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7">
-        <v>24</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="30"/>
+        <v>33</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="37"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="36"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7">
-        <v>25</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30"/>
+        <v>34</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="18"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7">
-        <v>26</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="30"/>
+        <v>35</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="37"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="36"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="33"/>
+        <v>32</v>
+      </c>
+      <c r="C36" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="18"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="33"/>
+        <v>34</v>
+      </c>
+      <c r="C37" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="C38" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="37"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="36"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="18"/>
-    </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+      <c r="C39" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="37"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="36"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7">
-        <v>31</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="33"/>
-    </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+        <v>40</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7">
-        <v>32</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
+        <v>41</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="37"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="36"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="7"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="24"/>
+      <c r="A42" s="7">
+        <v>42</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="37"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="36"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="33"/>
+        <v>43</v>
+      </c>
+      <c r="C43" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="37"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="36"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="18"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="7">
-        <v>35</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="33"/>
+        <v>40</v>
+      </c>
+      <c r="C44" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="37"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="36"/>
+    </row>
+    <row r="45" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="29">
+        <v>45</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="40"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="18"/>
+        <v>41</v>
+      </c>
+      <c r="C46" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="37"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="36"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="C47" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="37"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="36"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="33"/>
+        <v>45</v>
+      </c>
+      <c r="C48" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="37"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="36"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="C49" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="37"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="36"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="18"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>47</v>
+      </c>
+      <c r="C50" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="37"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="36"/>
+    </row>
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7">
-        <v>41</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="33"/>
+        <v>51</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="37"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="36"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="33"/>
+        <v>49</v>
+      </c>
+      <c r="C52" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="37"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="36"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="33"/>
+        <v>50</v>
+      </c>
+      <c r="C53" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="37"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="36"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="33"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="36"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="33"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+      <c r="C55" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="37"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="36"/>
+    </row>
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7">
-        <v>46</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="33"/>
+        <v>56</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="19"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="33"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>55</v>
+      </c>
+      <c r="C57" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="19"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="21"/>
+    </row>
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="7">
-        <v>48</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="33"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>58</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="36"/>
+    </row>
+    <row r="59" spans="1:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="33"/>
+        <v>53</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="36"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="33"/>
-    </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+      <c r="C60" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="19"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="21"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="7">
-        <v>51</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="33"/>
+        <v>61</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="19"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="21"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="7">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="33"/>
+        <v>78</v>
+      </c>
+      <c r="C62" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F62" s="19"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="21"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="33"/>
+        <v>79</v>
+      </c>
+      <c r="C63" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="19"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="21"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="7">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="33"/>
+        <v>80</v>
+      </c>
+      <c r="C64" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64" s="19"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="21"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="7">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="33"/>
-    </row>
-    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+      <c r="C65" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65" s="19"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="21"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="7">
-        <v>56</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
+        <v>66</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="F66" s="19"/>
       <c r="G66" s="20"/>
       <c r="H66" s="20"/>
@@ -4695,361 +5649,295 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="7">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="21"/>
-    </row>
-    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+        <v>83</v>
+      </c>
+      <c r="C67" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67" s="22"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="24"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="7">
-        <v>58</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="21"/>
+        <v>68</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F68" s="22"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="24"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="21"/>
+        <v>85</v>
+      </c>
+      <c r="C69" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F69" s="22"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="24"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="27"/>
+      <c r="A70" s="7">
+        <v>70</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F70" s="22"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="24"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="7">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="21"/>
+        <v>87</v>
+      </c>
+      <c r="C71" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F71" s="22"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="24"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="7">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="21"/>
+        <v>88</v>
+      </c>
+      <c r="C72" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F72" s="22"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="24"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="7">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B73" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="21"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F73" s="22"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="24"/>
+    </row>
+    <row r="74" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="7">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="21"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F74" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="36"/>
+    </row>
+    <row r="75" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="7">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="21"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>91</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F75" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="36"/>
+    </row>
+    <row r="76" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="7">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="21"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>92</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F76" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="36"/>
+    </row>
+    <row r="77" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="7">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="21"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="7">
-        <v>67</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="24"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="7">
-        <v>68</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="24"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="7">
-        <v>69</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="24"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="7">
-        <v>70</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="24"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="7">
-        <v>71</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="24"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="7">
-        <v>72</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="24"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="7">
-        <v>73</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="24"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="7">
-        <v>74</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="24"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="7">
-        <v>75</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="24"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="7">
-        <v>76</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="24"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="7">
-        <v>77</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="24"/>
+        <v>93</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F77" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="F64:I64"/>
+  <mergeCells count="50">
+    <mergeCell ref="F49:I49"/>
     <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="F50:I50"/>
     <mergeCell ref="F51:I51"/>
     <mergeCell ref="F52:I52"/>
     <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
     <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5147,10 +6035,10 @@
       <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7">
@@ -5168,10 +6056,10 @@
       <c r="E8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7">
@@ -5189,10 +6077,10 @@
       <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7">
@@ -5202,10 +6090,10 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7">
@@ -5215,10 +6103,10 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7">
@@ -5228,10 +6116,10 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7">
@@ -5241,10 +6129,10 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7">
@@ -5254,10 +6142,10 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7">
@@ -5267,10 +6155,10 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7">
@@ -5280,10 +6168,10 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7">
@@ -5293,10 +6181,10 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7">
@@ -5306,10 +6194,10 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7">
@@ -5319,10 +6207,10 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7">
@@ -5332,10 +6220,10 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="36"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7">
@@ -5345,10 +6233,10 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7">
@@ -5358,10 +6246,10 @@
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7">
@@ -5371,10 +6259,10 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="36"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7">
@@ -5384,10 +6272,10 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7">
@@ -5397,10 +6285,10 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7">
@@ -5410,10 +6298,10 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="36"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7">
@@ -5423,10 +6311,10 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="33"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="36"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7">
@@ -5436,10 +6324,10 @@
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="36"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7">
@@ -5449,10 +6337,10 @@
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="36"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7">
@@ -5462,10 +6350,10 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7">
@@ -5475,10 +6363,10 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="33"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7">
@@ -5488,10 +6376,10 @@
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="36"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7">
@@ -5501,10 +6389,10 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="33"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="36"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7">
@@ -5514,10 +6402,10 @@
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="33"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7">
@@ -5527,10 +6415,10 @@
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="33"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="36"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7">
@@ -5540,23 +6428,21 @@
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="33"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
@@ -5569,14 +6455,16 @@
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
